--- a/Test..xlsx
+++ b/Test..xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\New folder (4)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86663FEA-C866-44EE-B379-1471E7F2464A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC48C3BA-D43C-4BB2-94C7-26072A57CB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1230" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1230" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise 6" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <author>tqsang</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{8299D614-56CF-4888-85A4-6E5250047327}">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="160">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -533,10 +533,248 @@
     <t>Name of your project: vroomvrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Author: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of your project: </t>
+    <t>Verify login success with valid credentials</t>
+  </si>
+  <si>
+    <t>1. Navigate to login page</t>
+  </si>
+  <si>
+    <t>2. Enter valid username &amp; password</t>
+  </si>
+  <si>
+    <t>Username: tomsmith</t>
+  </si>
+  <si>
+    <t>Password: SuperSecretPassword!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Success message: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>You logged into a secure area!</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify login fails with invalid credentials</t>
+  </si>
+  <si>
+    <t>2. Enter invalid username &amp; password</t>
+  </si>
+  <si>
+    <t>Username: wronguser</t>
+  </si>
+  <si>
+    <t>Password: wrongpassword</t>
+  </si>
+  <si>
+    <t>Error message contains "invalid"</t>
+  </si>
+  <si>
+    <t>CSV Inline: Valid username, valid password</t>
+  </si>
+  <si>
+    <t>2. Enter username &amp; password from inline CSV</t>
+  </si>
+  <si>
+    <t>tomsmith / SuperSecretPassword!</t>
+  </si>
+  <si>
+    <t>Success message shown</t>
+  </si>
+  <si>
+    <t>CSV Inline: Invalid username, valid password</t>
+  </si>
+  <si>
+    <t>2. Enter invalid username</t>
+  </si>
+  <si>
+    <t>wronguser / SuperSecretPassword!</t>
+  </si>
+  <si>
+    <t>Error message shown</t>
+  </si>
+  <si>
+    <t>CSV Inline: Valid username, wrong password</t>
+  </si>
+  <si>
+    <t>2. Enter valid username with wrong password</t>
+  </si>
+  <si>
+    <t>tomsmith / wrongpassword</t>
+  </si>
+  <si>
+    <t>CSV Inline: Blank username and password</t>
+  </si>
+  <si>
+    <t>2. Leave both fields blank</t>
+  </si>
+  <si>
+    <t>Blank / Blank</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_007</t>
+  </si>
+  <si>
+    <t>CSV File-based login test (Multiple entries)</t>
+  </si>
+  <si>
+    <t>(Based on CSV file contents)</t>
+  </si>
+  <si>
+    <t>Matches expected column (success or error)</t>
+  </si>
+  <si>
+    <t>Mixed results</t>
+  </si>
+  <si>
+    <t>Varies</t>
+  </si>
+  <si>
+    <t>- login-data.csv is present</t>
+  </si>
+  <si>
+    <t>2. Loop through data from CSV file</t>
+  </si>
+  <si>
+    <t>3. Enter creds and assert based on outcome</t>
+  </si>
+  <si>
+    <t>Feature: Registration Form</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>Submit form with valid basic information</t>
+  </si>
+  <si>
+    <t>Website is accessible</t>
+  </si>
+  <si>
+    <t>1. Open the registration form</t>
+  </si>
+  <si>
+    <t>2. Enter valid data</t>
+  </si>
+  <si>
+    <t>3. Click Submit</t>
+  </si>
+  <si>
+    <t>Name, Email: long@example.com</t>
+  </si>
+  <si>
+    <t>Gender: Male</t>
+  </si>
+  <si>
+    <t>Mobile: 0987654321</t>
+  </si>
+  <si>
+    <t>DOB: 20 Jul 2025</t>
+  </si>
+  <si>
+    <t>Subject: Math</t>
+  </si>
+  <si>
+    <t>Hobby: Reading</t>
+  </si>
+  <si>
+    <t>Confirmation modal with thank you message appears</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>Submit form with invalid email (negative case)</t>
+  </si>
+  <si>
+    <t>1. Enter invalid email format</t>
+  </si>
+  <si>
+    <t>2. Click Submit</t>
+  </si>
+  <si>
+    <t>Email: long.com</t>
+  </si>
+  <si>
+    <t>Confirmation modal does not appear</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>Submit form with all hobbies and multiple subjects</t>
+  </si>
+  <si>
+    <t>1. Enter multiple subjects and hobbies</t>
+  </si>
+  <si>
+    <t>Subjects: Math, English</t>
+  </si>
+  <si>
+    <t>Hobbies: Sports, Music</t>
+  </si>
+  <si>
+    <t>Confirmation modal appears normally</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>Submit form with all fields empty (negative case)</t>
+  </si>
+  <si>
+    <t>1. Leave all fields blank</t>
+  </si>
+  <si>
+    <t>All fields empty</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>Submit form with invalid phone number format (contains letters)</t>
+  </si>
+  <si>
+    <t>1. Enter phone number like 12345abc</t>
+  </si>
+  <si>
+    <t>Mobile: 12345abc</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>Submit form with a very long address</t>
+  </si>
+  <si>
+    <t>1. Enter an address with 500 characters</t>
+  </si>
+  <si>
+    <t>Address: 500 characters (e.g., "A" x 500)</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>Submit form with a future date of birth (app still accepts it)</t>
+  </si>
+  <si>
+    <t>1. Enter DOB as 20 Jul 2100</t>
+  </si>
+  <si>
+    <t>Date of Birth: 20 Jul 2100</t>
+  </si>
+  <si>
+    <t>Confirmation modal still appears (app accepts future date)</t>
   </si>
 </sst>
 </file>
@@ -717,7 +955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -755,12 +993,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1132,10 +1377,10 @@
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="27.6">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -1147,25 +1392,25 @@
       <c r="E8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="28.8">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
@@ -1175,15 +1420,15 @@
       <c r="E9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="27.6" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1191,17 +1436,17 @@
         <v>22</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="27.6">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1213,25 +1458,25 @@
       <c r="E11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.8">
-      <c r="A12" s="13"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1241,15 +1486,15 @@
       <c r="E12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="40.799999999999997" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
@@ -1257,251 +1502,251 @@
         <v>22</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" ht="40.799999999999997">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="27.6">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="27.6">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" ht="27.6" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="13"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="14" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="13"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1541,10 +1786,10 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -1553,60 +1798,60 @@
       <c r="D27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="43.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="10"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -1615,60 +1860,60 @@
       <c r="D30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="43.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="10"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -1677,65 +1922,103 @@
       <c r="D33" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="43.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="10"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
     <mergeCell ref="H27:H29"/>
     <mergeCell ref="I27:I29"/>
     <mergeCell ref="J27:J29"/>
@@ -1752,52 +2035,14 @@
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="F27:F29"/>
     <mergeCell ref="G27:G29"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1807,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1822,17 +2067,17 @@
     <col min="6" max="7" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6" customHeight="1">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="27.6" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1851,308 +2096,1028 @@
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="13"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="A5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="27.6" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="27.6" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="13"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="13"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="40.799999999999997" customHeight="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="13"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="27.6" customHeight="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="13"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="13"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="13"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.8">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="28.8">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" ht="28.8">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A30" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A36" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10" ht="28.8" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:10" ht="25.8" customHeight="1">
+      <c r="A40" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10" ht="28.8" customHeight="1">
+      <c r="A42" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="1:10" ht="28.8">
+      <c r="A44" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+    </row>
+    <row r="46" spans="1:10" ht="28.8" customHeight="1">
+      <c r="A46" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
+  <mergeCells count="120">
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>